--- a/qa/01.测试用例/主界面/主界面逻辑测试用例.xlsx
+++ b/qa/01.测试用例/主界面/主界面逻辑测试用例.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="主界面场景逻辑" sheetId="2" r:id="rId2"/>
     <sheet name="UI相关逻辑" sheetId="7" r:id="rId3"/>
     <sheet name="提示逻辑" sheetId="6" r:id="rId4"/>
-    <sheet name="UI测试" sheetId="8" r:id="rId5"/>
-    <sheet name="备注" sheetId="3" r:id="rId6"/>
-    <sheet name="im" sheetId="4" r:id="rId7"/>
-    <sheet name="翻译" sheetId="5" r:id="rId8"/>
+    <sheet name="UI测试" sheetId="9" r:id="rId5"/>
+    <sheet name="翻译" sheetId="5" r:id="rId6"/>
+    <sheet name="备注" sheetId="3" r:id="rId7"/>
+    <sheet name="im" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="494">
   <si>
     <t>更新日期</t>
   </si>
@@ -275,1433 +275,1779 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>查看经验条背景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看角色名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名称为A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名称为B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示玩家名称为A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示玩家名称为B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>160*20像素大小形状</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验进度条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家满级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充显示当前等级经验值占本级升至下一级所需经验的比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验百分比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家满级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验为0，本级升下一级需要经验100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验为10，本级升下一级需要经验100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验为10，本级升下一级需要经验200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条显示为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条显示比例约总长度1/10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条显示比例约总长度1/20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比显示为0%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验为0，本级升下一级需要经验200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比显示为26%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验为51，本级升下一级需要经验200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验为51，本级升下一级需要经验500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比显示为11%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为MAXLEVEL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看角色升级时角色经验条变化情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看经验进度条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看角色疲劳值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示长度为160像素</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为：疲劳图标+当前疲劳/疲劳上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前疲劳为0，疲劳上限为100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前疲劳为10，疲劳上限为100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前疲劳为10，疲劳上限为200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前疲劳为400，疲劳上限为200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为：疲劳图标10/100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为：疲劳图标0/100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为：疲劳图标10/200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为：疲劳图标400/200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看货币显示区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括金币显示和钻石显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看布局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局如图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看金币显示区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看钻石显示区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与普通商店金币控件显示样式一致，大小为xxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与普通商店金币控件规则一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与普通商店钻石控件显示样式一致，大小为xxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与普通商店钻石控件规则一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看活动信息按钮显示区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看布局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局如图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在界面左侧，角色信息下方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看基础功能按钮显示区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在界面右下角，走马灯上方</t>
+  </si>
+  <si>
+    <t>布局如图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看聊天功能显示区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示走马灯，系统公告，系统提示，聊天框，与im功能一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见活动信息按钮测试点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动信息按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见基础功能按钮测试点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看活动信息按钮显示内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括签到，活动，充值按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看签到按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看按钮样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开签到界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵循主界面图标通用规则，按钮样式如图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看活动指引按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看充值按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开活动指引界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开商城界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础功能按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看基础功能按钮显示内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括缩进/展开按钮，任务，宠物，背包按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看缩进展开按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看按钮位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看按钮样式-展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为展开状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于基础按钮最右侧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看按钮样式-缩进</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩进按钮展开情况下，查看显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示各个功能图标依次显示，如图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次点击缩进按钮，查看显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳显示待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看任务按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开任务界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看任务按钮红点显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有新任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有已完成任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前无新任务无已完成任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务图标无变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务图标右上角有红点显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看宠物按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看背包按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开宠物详情界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开背包界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面图标通用规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看主界面图标显示样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括图标本体，名称，状态标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看图标本体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同图标显示不同图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看图标名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称为：签到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称为：活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称为：充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称为：任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称为：宠物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称为：背包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看状态标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看标识位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看标识样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红点样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于图标右上角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击图标，查看效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标有缩放效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标响应规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击图标后，手指移动后抬手，查看图标响应点击情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指移动的范围仍在图标响应范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指移动的范围不在图标响应范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下手指时，手指不在图标响应范围内，手指移动后抬手，查看图标响应点击情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指移动到图标响应范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指移动的范围不在图标响应范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应点击效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不响应点击效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级提示界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家触发升级提示界面，查看界面显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看界面位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看界面内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看界面布局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括界面标题，升级信息，功能开启预告和确定按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看界面标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为Level up!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看升级信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上到下依次为玩家等级，当前疲劳值，疲劳值上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看玩家等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升至10级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升至满级（配置50级为满级）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“恭喜您提升到10级”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“恭喜您提升到50级”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看当前疲劳值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“当前疲劳值：当前疲劳值 → 目标疲劳值”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前疲劳值为0，升级后疲劳值变为100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前疲劳值为20，升级后疲劳值变为120</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“当前疲劳值：0 → 100”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“当前疲劳值：20 → 120”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看疲劳值上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前疲劳值上限为60，升级后疲劳值上限变为100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前疲劳值上限为60，升级后疲劳值上限变为120</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“疲劳值上限：60 →100”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“疲劳值上限：60 →120”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后疲劳值无变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示该项，其余内容垂直居中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后疲劳值上限无变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看功能开启预告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于屏幕中间，模态不可移动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局如图，背景有半透明遮罩效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括功能名称，简介，开启情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见功能开启预告显示规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能开启预告显示规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看功能名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取配置表中的功能名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置名称为A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置名称为B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看布局情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称为A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称为B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看简介</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取配置表中名称对应的简介</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置简介为A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置简介为B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示简介为B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示简介为A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看开启情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前功能开启情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>该功能开启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>该功能未开启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为绿色“已开启”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为红色“X级开启”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局如图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看确定按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用按钮样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面关闭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看功能开启预告显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上到下依次显示已开启功能，未开启功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看已开启功能显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示本次等级提升所有已开启功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次升级无新功能开启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次升级开启了1个新功能A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示已开启功能项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示新功能A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次显示新功能ABC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看未开启功能显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示目标等级之后将要开启的两个新功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标等级后已无新功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示未开启功能项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标等级后只有1个新功能A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示新功能A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标等级后有3个新功能ABC，其中ABC为不同等级开启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只会显示新功能AB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只会显示新功能AB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能开启预告有多个预告时，查看滚动情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持滚动查看</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性提升多个等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“疲劳值上限：当前疲劳值上限 → 目标疲劳值上限”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级界面弹出规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不同界面触发升级，查看升级界面弹出情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邮箱界面升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在任务界面升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在副本结算时升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后立即弹出升级界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待副本结算界面出现后，弹出升级界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看升级界面层级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级在邮箱界面上层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级在任务界面上层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级在副本结算界面上层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面场景待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头移动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景中，手指进行滑动操作，查看场景变化情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景中镜头可以按照固定轨迹左右滑动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变滑动力度以及速度，查看场景滑动速度情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动速度以及距离随着玩家滑动力度以及速度变化而变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看镜头参数配置情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看镜头高度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看镜头视距</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看镜头角度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4m</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平视（水平夹角月15-20度）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5m左右</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次进入客户端，查看默认镜头显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为默认镜头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置默认镜头位置在A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置默认镜头位置在B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次进入时镜头位置在A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次进入时镜头位置在B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动镜头在位置C，进行相关操作，查看镜头位置显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏后重新开启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入其他界面后返回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入对局后返回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头仍在位置C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认镜头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击可交互物件，查看物件变化情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看触发规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开对应入口界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击物件后，手指移动后抬手，查看物件响应点击情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下手指时，手指不在物件响应范围内，手指移动后抬手，查看物件响应点击情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指移动的范围仍在物件响应范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指移动的范围不在物件响应范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指移动到物件响应范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件交互-效果反馈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件交互-交互形式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件交互-响应规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家满足相关条件，查看物件显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家不满足某个物件的开启条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家满足某个物件的开启条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件为普通物件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看不同物件未点击时状态显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件变为可交互物件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通物件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可交互物件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看不同物件点击时状态显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无特效反馈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有特效反馈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无任何反馈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有特效或动作反馈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标需要支持动画或粒子效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后，查看主界面数据（等级，经验，活力值）显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据刷新准确</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放点击动作及特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为默认镜头</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>居中显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体升级开启了3个新功能，其配置顺序为ABC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标等级后有3个新功能ABC，其中BC为同一等级开启，B配置在C前</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端：5048</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务ui时做</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期做</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头回弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>向左拖动镜头达到边界时继续拖动，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以继续拉伸一段距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>松手后查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头回弹到边界位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>向右拖动镜头达到边界时继续拖动，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例走读情况修改用例并执行测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“恭喜您提升到x级”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看弹出的提示界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家一次提升多个等级X-Y，查看升级界面弹出情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与升级提示界面逻辑一致（显示功能X-Y全部功能）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接弹出最终目标等级Y升级界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为当前等级经验值占本级升至下一级所需经验比例（精确到个位向上取整）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接显示最终百分比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式</t>
+  </si>
+  <si>
+    <t>版面</t>
+  </si>
+  <si>
+    <t>内页</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>按钮</t>
+  </si>
+  <si>
+    <t>字色</t>
+  </si>
+  <si>
+    <t>字号</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>名字紧贴头像 活力值居中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用弹出框大小</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>字色-浅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-描边</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">玩家名称30号  等级活力值24号 金币24号      </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同图上 第一行的congratulations是24号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>居中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>居中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色-浅</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字颜色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力变化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开启功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开启功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜升级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20px</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面布局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>586*384</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开启功能-标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开启功能-描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开启功能-标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开启功能-描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用弹出框尺寸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮尺寸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>141*49</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB（250，247，241)  RGB（202，151，13）描边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级活力值</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>30px</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB（251，241，216)  RGB（90，40，10）描边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>main_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>levelup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_title</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations, you are now level X!</t>
+  </si>
+  <si>
+    <t>main_levelup_pilao</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Energy</t>
+  </si>
+  <si>
+    <t>main_levelup_shangxian</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Limit</t>
+  </si>
+  <si>
+    <r>
+      <t>main_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>levelup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_kaiqi</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocked</t>
+  </si>
+  <si>
+    <r>
+      <t>main_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>levelup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_weikaiqi</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocks at LVL X</t>
+  </si>
+  <si>
+    <t>恭喜您提升到X级</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前活力</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力上限</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开启</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>X级开启</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>先不改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条直接显示最终结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>包括背景，进度条，与百分比数字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验条背景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看角色名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家名称为A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家名称为B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示玩家名称为A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示玩家名称为B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>160*20像素大小形状</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验进度条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家满级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>填充显示当前等级经验值占本级升至下一级所需经验的比例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验百分比</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家满级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家经验为0，本级升下一级需要经验100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家经验为10，本级升下一级需要经验100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家经验为10，本级升下一级需要经验200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条显示为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条显示比例约总长度1/10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条显示比例约总长度1/20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比显示为0%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家经验为0，本级升下一级需要经验200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比显示为26%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家经验为51，本级升下一级需要经验200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家经验为51，本级升下一级需要经验500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比显示为11%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为MAXLEVEL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看角色升级时角色经验条变化情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看经验进度条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条由左至右动态填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态变化，每次变化最小值为1%，保持与进度条同时结束即可</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看角色疲劳值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示长度为160像素</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为：疲劳图标+当前疲劳/疲劳上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前疲劳为0，疲劳上限为100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前疲劳为10，疲劳上限为100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前疲劳为10，疲劳上限为200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前疲劳为400，疲劳上限为200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为：疲劳图标10/100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为：疲劳图标0/100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为：疲劳图标10/200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为：疲劳图标400/200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看货币显示区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括金币显示和钻石显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看布局</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>布局如图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看金币显示区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看钻石显示区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>与普通商店金币控件显示样式一致，大小为xxx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>与普通商店金币控件规则一致</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>与普通商店钻石控件显示样式一致，大小为xxx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>与普通商店钻石控件规则一致</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看活动信息按钮显示区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看布局</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>布局如图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在界面左侧，角色信息下方</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看基础功能按钮显示区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在界面右下角，走马灯上方</t>
-  </si>
-  <si>
-    <t>布局如图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看聊天功能显示区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示走马灯，系统公告，系统提示，聊天框，与im功能一致</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见活动信息按钮测试点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动信息按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见基础功能按钮测试点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看活动信息按钮显示内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括签到，活动，充值按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看签到按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看按钮样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开签到界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>遵循主界面图标通用规则，按钮样式如图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看活动指引按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看充值按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开活动指引界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开商城界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础功能按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看基础功能按钮显示内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括缩进/展开按钮，任务，宠物，背包按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看缩进展开按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看按钮位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看按钮样式-展开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为展开状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>位于基础按钮最右侧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看按钮样式-缩进</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩进按钮展开情况下，查看显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示各个功能图标依次显示，如图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次点击缩进按钮，查看显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳显示待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看任务按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开任务界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看任务按钮红点显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前有新任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前有已完成任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前无新任务无已完成任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务图标无变化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务图标右上角有红点显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看宠物按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看背包按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开宠物详情界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开背包界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面图标通用规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看主界面图标显示样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括图标本体，名称，状态标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看图标本体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据不同图标显示不同图片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看图标名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称为：签到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称为：活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称为：充值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称为：任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称为：宠物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称为：背包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看状态标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看标识位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看标识样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>红点样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>位于图标右上角</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击图标，查看效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标有缩放效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标响应规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击图标后，手指移动后抬手，查看图标响应点击情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指移动的范围仍在图标响应范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指移动的范围不在图标响应范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下手指时，手指不在图标响应范围内，手指移动后抬手，查看图标响应点击情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指移动到图标响应范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指移动的范围不在图标响应范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应点击效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不响应点击效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级提示界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家触发升级提示界面，查看界面显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看界面位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看界面内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看界面布局</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括界面标题，升级信息，功能开启预告和确定按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看界面标题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为Level up!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看升级信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>从上到下依次为玩家等级，当前疲劳值，疲劳值上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看玩家等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升至10级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升至满级（配置50级为满级）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“恭喜您提升到10级”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“恭喜您提升到50级”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看当前疲劳值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“当前疲劳值：当前疲劳值 → 目标疲劳值”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前疲劳值为0，升级后疲劳值变为100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前疲劳值为20，升级后疲劳值变为120</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“当前疲劳值：0 → 100”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“当前疲劳值：20 → 120”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看疲劳值上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前疲劳值上限为60，升级后疲劳值上限变为100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前疲劳值上限为60，升级后疲劳值上限变为120</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“疲劳值上限：60 →100”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“疲劳值上限：60 →120”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级后疲劳值无变化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示该项，其余内容垂直居中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级后疲劳值上限无变化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看功能开启预告</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>位于屏幕中间，模态不可移动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>布局如图，背景有半透明遮罩效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括功能名称，简介，开启情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见功能开启预告显示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能开启预告显示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看功能名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取配置表中的功能名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置名称为A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置名称为B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看布局情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称为A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称为B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看简介</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取配置表中名称对应的简介</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置简介为A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置简介为B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示简介为B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示简介为A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看开启情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示当前功能开启情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>该功能开启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>该功能未开启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为绿色“已开启”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为红色“X级开启”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>布局如图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看确定按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用按钮样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击确定按钮，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面关闭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看功能开启预告显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>从上到下依次显示已开启功能，未开启功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看已开启功能显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示本次等级提升所有已开启功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次升级无新功能开启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次升级开启了1个新功能A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示已开启功能项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示新功能A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>依次显示新功能ABC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看未开启功能显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示目标等级之后将要开启的两个新功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标等级后已无新功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示未开启功能项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标等级后只有1个新功能A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示新功能A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标等级后有3个新功能ABC，其中ABC为不同等级开启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>只会显示新功能AB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>只会显示新功能AB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能开启预告有多个预告时，查看滚动情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持滚动查看</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性提升多个等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家一次提升多个等级，查看升级界面弹出情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出多个提示界面，关闭弹出下一个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看每次弹出的提示界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“疲劳值上限：当前疲劳值上限 → 目标疲劳值上限”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为“恭喜您提升到x级”，每次1提升1级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>与升级提示界面逻辑一致</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级界面弹出规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在不同界面触发升级，查看升级界面弹出情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在邮箱界面升级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在任务界面升级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在副本结算时升级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级后立即弹出升级界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待副本结算界面出现后，弹出升级界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看升级界面层级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级在邮箱界面上层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级在任务界面上层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级在副本结算界面上层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面场景待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头移动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景中，手指进行滑动操作，查看场景变化情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景中镜头可以按照固定轨迹左右滑动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>改变滑动力度以及速度，查看场景滑动速度情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动速度以及距离随着玩家滑动力度以及速度变化而变化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看镜头参数配置情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看镜头高度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看镜头视距</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看镜头角度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>平视（水平夹角月15-20度）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5m左右</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次进入客户端，查看默认镜头显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为默认镜头</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置默认镜头位置在A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置默认镜头位置在B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次进入时镜头位置在A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次进入时镜头位置在B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动镜头在位置C，进行相关操作，查看镜头位置显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏后重新开启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入其他界面后返回</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入对局后返回</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头仍在位置C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认镜头</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击可交互物件，查看物件变化情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看触发规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开对应入口界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击物件后，手指移动后抬手，查看物件响应点击情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下手指时，手指不在物件响应范围内，手指移动后抬手，查看物件响应点击情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指移动的范围仍在物件响应范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指移动的范围不在物件响应范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指移动到物件响应范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件交互-效果反馈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件交互-交互形式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件交互-响应规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家满足相关条件，查看物件显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家不满足某个物件的开启条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家满足某个物件的开启条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件为普通物件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看不同物件未点击时状态显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件变为可交互物件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通物件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可交互物件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看不同物件点击时状态显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无特效反馈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有特效反馈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无任何反馈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有特效或动作反馈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标需要支持动画或粒子效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验百分比</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>字色字号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级界面levelup</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启功能字色字号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为当前等级经验值占本级升至下一级所需经验比例（精确到个位向上取整）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级后，查看主界面数据（等级，经验，活力值）显示情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据刷新准确</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放点击动作及特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示为默认镜头</t>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>居中显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本体升级开启了3个新功能，其配置顺序为ABC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标等级后有3个新功能ABC，其中BC为同一等级开启，B配置在C前</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端：5048</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务ui时做</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>近期做</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头回弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>向左拖动镜头达到边界时继续拖动，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以继续拉伸一段距离</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>松手后查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头回弹到边界位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>向右拖动镜头达到边界时继续拖动，查看触发情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用例走读情况修改用例并执行测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +2055,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1869,8 +2215,43 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1907,8 +2288,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1970,6 +2369,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1983,7 +2578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2092,13 +2687,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2116,11 +2707,98 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2129,7 +2807,28 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2226,6 +2925,132 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
@@ -2430,16 +3255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>443736</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>177490</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>75436</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2456,7 +3281,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13868400" y="5251450"/>
+          <a:off x="14973300" y="6457950"/>
           <a:ext cx="6114286" cy="2476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2501,6 +3326,201 @@
         <a:xfrm>
           <a:off x="14687550" y="692150"/>
           <a:ext cx="5133333" cy="4180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31616</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16408400" y="7111999"/>
+          <a:ext cx="2374766" cy="1841501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17545050" y="6013451"/>
+          <a:ext cx="1333500" cy="1175822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295161</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18754725" y="11106150"/>
+          <a:ext cx="914286" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387124</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>620950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9493024" y="1981200"/>
+          <a:ext cx="6025026" cy="4478921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441369</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="6604000"/>
+          <a:ext cx="7280319" cy="4425950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2777,7 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -2829,14 +3849,14 @@
         <v>42312</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="36" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
@@ -2860,7 +3880,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -2923,8 +3943,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="50" t="s">
-        <v>314</v>
+      <c r="C3" s="48" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2935,22 +3955,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D12" s="33">
         <v>1</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -2958,13 +3978,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2972,68 +3992,68 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D15" s="33">
         <v>1</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="17" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="H16" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F17" s="17" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="H17" s="51"/>
+        <v>325</v>
+      </c>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D18" s="33">
         <v>2</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F19" s="17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="I19" s="17">
         <v>1040</v>
@@ -3041,13 +4061,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F20" s="17" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -3055,64 +4075,64 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D22" s="33">
         <v>1</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="H22" s="51"/>
+        <v>317</v>
+      </c>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F23" s="17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="H23" s="51"/>
+        <v>319</v>
+      </c>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F24" s="17" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="H24" s="53"/>
+        <v>318</v>
+      </c>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H25" s="34"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D26" s="33">
         <v>1</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -3120,13 +4140,13 @@
         <v>2</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -3134,13 +4154,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -3148,13 +4168,13 @@
         <v>4</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -3162,69 +4182,69 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D31" s="33">
         <v>1</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="H31" s="53"/>
+        <v>376</v>
+      </c>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F32" s="17" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="H32" s="51"/>
+        <v>335</v>
+      </c>
+      <c r="H32" s="49"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D34" s="33">
         <v>1</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F35" s="17" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -3232,27 +4252,27 @@
         <v>2</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F37" s="17" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -3260,138 +4280,138 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D39" s="33">
         <v>1</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="H39" s="51"/>
+        <v>349</v>
+      </c>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F40" s="17" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="H40" s="51"/>
+        <v>351</v>
+      </c>
+      <c r="H40" s="49"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="33">
         <v>2</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="H41" s="51"/>
+        <v>355</v>
+      </c>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F42" s="17" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="H42" s="53"/>
+        <v>356</v>
+      </c>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="33">
         <v>3</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="H43" s="53"/>
+        <v>357</v>
+      </c>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F44" s="17" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="H44" s="53"/>
+        <v>358</v>
+      </c>
+      <c r="H44" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="J21">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="13">
       <formula>LEN(TRIM(J21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H41">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H41">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H23">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H23">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H14">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H14">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H29">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H29">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3405,10 +4425,10 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -3486,7 +4506,9 @@
       <c r="G3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="33">
@@ -3501,11 +4523,13 @@
       <c r="G4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="C5" s="49" t="s">
-        <v>162</v>
+      <c r="C5" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>39</v>
@@ -3513,7 +4537,9 @@
       <c r="G5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="17" t="s">
@@ -3522,7 +4548,9 @@
       <c r="G6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="33">
@@ -3544,7 +4572,7 @@
         <v>49</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3554,7 +4582,7 @@
       <c r="G9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="17" t="s">
@@ -3563,7 +4591,7 @@
       <c r="G10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="51"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="D11" s="33">
@@ -3576,7 +4604,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3587,7 +4615,7 @@
         <v>57</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3598,7 +4626,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3609,7 +4637,7 @@
         <v>59</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3619,7 +4647,9 @@
       <c r="G15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="17" t="s">
@@ -3628,40 +4658,42 @@
       <c r="G16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="33">
         <v>5</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="51"/>
+        <v>66</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F18" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F19" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
@@ -3672,75 +4704,77 @@
         <v>64</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="51"/>
+      <c r="G21" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="4:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D22" s="33">
         <v>7</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F23" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F24" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F25" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F26" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="4:9" ht="29" x14ac:dyDescent="0.25">
@@ -3748,13 +4782,13 @@
         <v>8</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I27" s="17">
         <v>1036</v>
@@ -3762,46 +4796,46 @@
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F28" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="48" t="s">
         <v>84</v>
       </c>
+      <c r="G28" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="H28" s="35" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F29" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F30" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>89</v>
-      </c>
       <c r="H30" s="35" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F31" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="I31" s="17">
         <v>1037</v>
@@ -3812,231 +4846,249 @@
         <v>9</v>
       </c>
       <c r="E32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="G32" s="17" t="s">
-        <v>93</v>
+        <v>491</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="I32" s="17">
         <v>1039</v>
       </c>
     </row>
-    <row r="33" spans="4:8" ht="29" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F33" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>94</v>
+        <v>412</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34" s="33">
         <v>10</v>
       </c>
       <c r="E34" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G35" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="51"/>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="17" t="s">
+      <c r="G37" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="51"/>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="G38" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="51"/>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="51"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="51"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39" s="33">
         <v>11</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F40" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G40" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H40" s="35" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="17" t="s">
-        <v>110</v>
-      </c>
       <c r="G41" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="51"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="H41" s="49"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42" s="33">
         <v>12</v>
       </c>
       <c r="E42" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="H42" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1111</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="35"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="17" t="s">
-        <v>117</v>
-      </c>
       <c r="G43" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="35"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="H43" s="49"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44" s="33">
         <v>13</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F44" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="49"/>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="35"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="17" t="s">
-        <v>117</v>
-      </c>
       <c r="G45" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" s="35"/>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H45" s="49"/>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46" s="33">
         <v>14</v>
       </c>
       <c r="E46" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="49"/>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="49"/>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="G48" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H46" s="51"/>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H47" s="51"/>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H48" s="51"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D49" s="33">
         <v>15</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F50" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F51" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -4044,13 +5096,13 @@
         <v>16</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -4058,115 +5110,115 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D54" s="33">
         <v>1</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" s="51"/>
+        <v>132</v>
+      </c>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" s="33">
         <v>2</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F55" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H55" s="51"/>
+      <c r="H55" s="49"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F56" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56" s="51"/>
+        <v>136</v>
+      </c>
+      <c r="H56" s="49"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D57" s="33">
         <v>3</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F57" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" s="51"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F58" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H58" s="51"/>
+        <v>140</v>
+      </c>
+      <c r="H58" s="49"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" s="33">
         <v>4</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F59" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G59" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H59" s="51"/>
+      <c r="H59" s="49"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F60" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="51"/>
+        <v>141</v>
+      </c>
+      <c r="H60" s="49"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H61" s="35"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D62" s="33">
         <v>1</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -4174,32 +5226,32 @@
         <v>2</v>
       </c>
       <c r="E63" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G63" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="H63" s="35"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F64" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="H64" s="35"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F65" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G65" s="32"/>
       <c r="H65" s="35"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F66" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G66" s="32"/>
       <c r="H66" s="35"/>
@@ -4209,22 +5261,22 @@
         <v>3</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H67" s="35"/>
     </row>
     <row r="68" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="F68" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H68" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -4232,13 +5284,13 @@
         <v>4</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -4246,105 +5298,105 @@
         <v>5</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F70" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G70" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70" s="51"/>
+      <c r="H70" s="49"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F71" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H71" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="H71" s="49"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D72" s="33">
         <v>6</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F72" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H72" s="51"/>
+      <c r="H72" s="49"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F73" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G73" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H73" s="51"/>
+      <c r="H73" s="49"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F74" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H74" s="51"/>
+        <v>166</v>
+      </c>
+      <c r="H74" s="49"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D75" s="33">
         <v>7</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F75" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G75" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H75" s="51"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F76" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H76" s="51"/>
+        <v>170</v>
+      </c>
+      <c r="H76" s="49"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D77" s="33">
         <v>8</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F77" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="G77" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H77" s="51"/>
+      <c r="H77" s="49"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F78" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H78" s="51"/>
+        <v>171</v>
+      </c>
+      <c r="H78" s="49"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H79" s="35"/>
@@ -4354,174 +5406,174 @@
         <v>15</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D80" s="33">
         <v>1</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="H80" s="51"/>
+        <v>359</v>
+      </c>
+      <c r="H80" s="49"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F81" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H81" s="51"/>
+        <v>174</v>
+      </c>
+      <c r="H81" s="49"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D82" s="33">
         <v>2</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H82" s="51"/>
+        <v>176</v>
+      </c>
+      <c r="H82" s="49"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D83" s="33">
         <v>3</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="H83" s="51"/>
+        <v>184</v>
+      </c>
+      <c r="H83" s="49"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F84" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="H84" s="51"/>
+        <v>185</v>
+      </c>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F85" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="H85" s="51"/>
+        <v>186</v>
+      </c>
+      <c r="H85" s="49"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F86" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="H86" s="51"/>
+        <v>187</v>
+      </c>
+      <c r="H86" s="49"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F87" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="H87" s="51"/>
+        <v>188</v>
+      </c>
+      <c r="H87" s="49"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F88" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="H88" s="51"/>
+        <v>189</v>
+      </c>
+      <c r="H88" s="49"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D89" s="33">
         <v>4</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F89" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="H89" s="51"/>
+      <c r="H89" s="49"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F90" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="H90" s="51"/>
+        <v>193</v>
+      </c>
+      <c r="H90" s="49"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D91" s="33">
         <v>5</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H91" s="51"/>
+        <v>196</v>
+      </c>
+      <c r="H91" s="49"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H92" s="35"/>
     </row>
     <row r="93" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="B93" s="33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D93" s="33">
         <v>1</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F94" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -4529,41 +5581,41 @@
         <v>2</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F95" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G95" s="17" t="s">
-        <v>211</v>
-      </c>
       <c r="H95" s="35" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F96" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H3:H96">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H96">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4577,11 +5629,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -4645,47 +5697,47 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D3" s="33">
         <v>1</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4693,13 +5745,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4707,13 +5759,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I7" s="17">
         <v>1041</v>
@@ -4724,154 +5776,177 @@
         <v>4</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="I8" s="17">
         <v>1042</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="33">
         <v>5</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="51"/>
+        <v>226</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1129</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="51"/>
+        <v>229</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="51"/>
+        <v>230</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="51"/>
+        <v>237</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="D15" s="33">
         <v>6</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="H15" s="51"/>
+        <v>293</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H16" s="51"/>
+        <v>234</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F17" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17" s="51"/>
+        <v>235</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F18" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="51"/>
+        <v>237</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="33">
         <v>7</v>
       </c>
       <c r="E19" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>245</v>
-      </c>
       <c r="H19" s="35" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F20" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" s="51"/>
+        <v>266</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F21" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
@@ -4879,35 +5954,35 @@
         <v>8</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F23" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>255</v>
-      </c>
       <c r="H23" s="35" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F24" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>256</v>
-      </c>
       <c r="H24" s="35" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
@@ -4915,35 +5990,35 @@
         <v>9</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F26" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>262</v>
-      </c>
       <c r="H26" s="35" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F27" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
@@ -4951,54 +6026,60 @@
         <v>10</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F29" s="17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H29" s="51"/>
+        <v>264</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F30" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H30" s="51"/>
+        <v>265</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" s="33">
         <v>11</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="H31" s="51"/>
+        <v>268</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F32" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -5006,22 +6087,22 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D34" s="33">
         <v>1</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -5029,46 +6110,46 @@
         <v>2</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F36" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F37" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F38" s="17" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -5076,54 +6157,58 @@
         <v>3</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F40" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F41" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F42" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="H42" s="51"/>
+        <v>288</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="43" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F43" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="H43" s="51"/>
+        <v>287</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="17"/>
@@ -5131,36 +6216,36 @@
         <v>4</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H45" s="35"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B46" s="33" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D46" s="33">
         <v>1</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="I46" s="17">
         <v>1042</v>
@@ -5171,65 +6256,67 @@
         <v>2</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="H47" s="51"/>
+        <v>409</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H48" s="35"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D49" s="33">
         <v>1</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F50" s="17" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F51" s="17" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -5237,49 +6324,53 @@
         <v>2</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="H52" s="51"/>
+        <v>303</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F53" s="17" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H53" s="51"/>
+        <v>304</v>
+      </c>
+      <c r="H53" s="49"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F54" s="17" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="H54" s="51"/>
+        <v>305</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="55" spans="2:10" ht="29" x14ac:dyDescent="0.25">
       <c r="D55" s="33">
         <v>3</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="I55" s="17">
         <v>1035</v>
@@ -5287,27 +6378,27 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E56" s="18" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F57" s="17" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -5316,20 +6407,20 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="J8">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="4">
       <formula>LEN(TRIM(J8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H58">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H58">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5341,57 +6432,923 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D12"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="38.6328125" customWidth="1"/>
+    <col min="7" max="7" width="56.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>374</v>
-      </c>
+    <row r="1" spans="1:11" ht="23" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="75" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" ht="43" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="43" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="65"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E14" s="66"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E15" s="67" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="D16" s="69">
+        <v>251241216</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" s="69">
+        <v>251241216</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="D18" s="69">
+        <v>251241216</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" s="69">
+        <v>251241216</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>464</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="66"/>
+      <c r="C27" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>457</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="A32" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>472</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="F32">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="D33" s="70">
+        <v>251241216</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="D34" s="70">
+        <v>251241216</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="E16:E32">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E32">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="71" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="72" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>485</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="71" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="40"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="42"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="43"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="40"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="43"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="45"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="45"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F23">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F23">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5412,7 +7369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
@@ -5643,423 +7600,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="41"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="47"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="47"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="J3:J8">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J8">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>